--- a/Software Requirements Specification/responseiblity.xlsx
+++ b/Software Requirements Specification/responseiblity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06c3355a7d4dae46/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sametcan\Desktop\softwareproject\Software_Engineering_Project\Software Requirements Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{EB3EB930-3CB2-48CE-83DD-6429B98A521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C998A6A-36C6-4632-9F59-E2E6698841B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9FC4E-6E9A-41EF-8758-F22F10BBD14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4571234-1CB7-4D8F-A0C8-8430A3E61D34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A4571234-1CB7-4D8F-A0C8-8430A3E61D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>CONTRIBUTERS</t>
   </si>
@@ -165,13 +165,25 @@
   </si>
   <si>
     <t>A. APPENDICES</t>
+  </si>
+  <si>
+    <t>Subgroup 1</t>
+  </si>
+  <si>
+    <t>Subgroup 2</t>
+  </si>
+  <si>
+    <t>Subgroup 3</t>
+  </si>
+  <si>
+    <t>Providing a Word document layout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +205,24 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +247,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -243,17 +276,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="135"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -263,11 +340,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -289,99 +379,46 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE1474D-E9A6-2CD4-E6EA-6EC042E6BFFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6583680" y="1821180"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E967B83-BCF8-4D03-8E31-2BC3AAA892CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4808220" y="2125980"/>
+        <xdr:cNvPr id="3" name="Grafik 2" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE1474D-E9A6-2CD4-E6EA-6EC042E6BFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6583680" y="1821180"/>
           <a:ext cx="297180" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -402,6 +439,59 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E967B83-BCF8-4D03-8E31-2BC3AAA892CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808220" y="2125980"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -448,14 +538,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -501,13 +591,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -554,13 +644,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -607,13 +697,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -660,13 +750,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -713,14 +803,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,13 +856,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -819,13 +909,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -872,13 +962,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -925,13 +1015,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -978,14 +1068,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1031,13 +1121,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1084,14 +1174,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>281941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1137,13 +1227,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1190,13 +1280,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,13 +1333,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,13 +1386,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1349,13 +1439,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1402,14 +1492,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1455,14 +1545,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1508,14 +1598,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1561,13 +1651,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1614,13 +1704,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1667,13 +1757,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1720,13 +1810,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1773,67 +1863,67 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Grafik 30" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8AD241-C60C-422A-A575-878DA1595927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3870960" y="10317480"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Grafik 30" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8AD241-C60C-422A-A575-878DA1595927}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3870960" y="10317480"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1879,14 +1969,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1932,67 +2022,67 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Grafik 33" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7CF2AB-ABE5-4E06-B039-F28CAEC228BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3855720" y="10622280"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Grafik 33" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7CF2AB-ABE5-4E06-B039-F28CAEC228BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3855720" y="10622280"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2038,14 +2128,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>289560</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>289559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2091,494 +2181,494 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Grafik 36" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F657CDD6-F256-4BE3-97C5-57B43FE8FD8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="11239500"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Grafik 37" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DB1260-AE5E-4F24-B2A0-461EFE4A1D99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6530340" y="11536680"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Grafik 38" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAC1AB0-8019-4FB4-9726-9946838A24E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="11224260"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Grafik 39" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D99BAD-B853-479C-8257-64AC8A6E53C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7421880" y="11544300"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Grafik 36" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F657CDD6-F256-4BE3-97C5-57B43FE8FD8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="11239500"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Grafik 40" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE71A10-46B6-476F-A758-66A764E198A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="11231880"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Grafik 41" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5222EF3B-1935-488C-B6DC-F4A75BA13DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="11536680"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Grafik 37" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DB1260-AE5E-4F24-B2A0-461EFE4A1D99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6530340" y="11536680"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Grafik 42" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3E53F2-E9FC-4A61-9A75-9EED215769D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9159240" y="11224260"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Grafik 43" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E9375E-5A44-4199-814A-DA3CAA8B1AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9174480" y="11544300"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DD465D-F293-4469-A37E-3C5E86812990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9243060" y="3040380"/>
+          <a:ext cx="297180" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Grafik 38" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAC1AB0-8019-4FB4-9726-9946838A24E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7414260" y="11224260"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Grafik 39" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D99BAD-B853-479C-8257-64AC8A6E53C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7421880" y="11544300"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Grafik 40" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE71A10-46B6-476F-A758-66A764E198A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8267700" y="11231880"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Grafik 41" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5222EF3B-1935-488C-B6DC-F4A75BA13DC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8260080" y="11536680"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Grafik 42" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3E53F2-E9FC-4A61-9A75-9EED215769D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9159240" y="11224260"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Grafik 43" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E9375E-5A44-4199-814A-DA3CAA8B1AE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9174480" y="11544300"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1" descr="Kapat düz dolguyla">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DD465D-F293-4469-A37E-3C5E86812990}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9243060" y="3040380"/>
-          <a:ext cx="297180" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="45" name="Grafik 44" descr="Kapat düz dolguyla">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -2621,14 +2711,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2660,8 +2750,273 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9212580" y="11841480"/>
-          <a:ext cx="297180" cy="297180"/>
+          <a:off x="8980842" y="12621857"/>
+          <a:ext cx="297180" cy="294939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235773</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>532953</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Grafik 45" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64E9AAD-60E4-4797-889A-6D6586CC2E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524949" y="11109960"/>
+          <a:ext cx="297180" cy="294939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532504</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Grafik 46" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51945A60-56DD-492D-9288-7406F8E777EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8964706" y="11105029"/>
+          <a:ext cx="297180" cy="294939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190949</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488129</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Grafik 47" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35429B16-F9B7-4DE2-9085-115B5A42AE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3776831" y="11692666"/>
+          <a:ext cx="297180" cy="294939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510092</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Grafik 49" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C383273-F312-43C6-98D6-840824C1156B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8057030" y="11698941"/>
+          <a:ext cx="297180" cy="294939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203051</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>17032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500231</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Grafik 50" descr="Kapat düz dolguyla">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE37280-D0BA-40B9-8623-DDC24F5C423B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8047169" y="12903797"/>
+          <a:ext cx="297180" cy="294939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2674,7 +3029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2970,13 +3325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27792B19-5140-4743-A8F6-165ADB780748}">
-  <dimension ref="B3:J39"/>
+  <dimension ref="B3:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="7" width="12.7109375" customWidth="1"/>
@@ -2984,457 +3339,486 @@
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="28.15" customHeight="1"/>
-    <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1">
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+    <row r="3" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="66" customHeight="1">
+    <row r="5" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="24" customHeight="1">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="24" customHeight="1">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="23.45" customHeight="1">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="24" customHeight="1">
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1">
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1">
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
-    <row r="17" spans="2:9" ht="24" customHeight="1">
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
-    <row r="18" spans="2:9" ht="24" customHeight="1">
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="24" customHeight="1">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
-    <row r="20" spans="2:9" ht="24" customHeight="1">
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
-    <row r="21" spans="2:9" ht="24" customHeight="1">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
-    <row r="22" spans="2:9" ht="24" customHeight="1">
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
-    <row r="23" spans="2:9" ht="24" customHeight="1">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
-    <row r="24" spans="2:9" ht="23.45" customHeight="1">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
-    <row r="25" spans="2:9" ht="24" customHeight="1">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
-    <row r="26" spans="2:9" ht="23.45" customHeight="1">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
-    <row r="27" spans="2:9" ht="24" customHeight="1">
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
-    <row r="28" spans="2:9" ht="24" customHeight="1">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
-    <row r="29" spans="2:9" ht="22.15" customHeight="1">
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="2:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
-    <row r="30" spans="2:9" ht="24" customHeight="1">
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
-    <row r="31" spans="2:9" ht="24" customHeight="1">
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
-    <row r="32" spans="2:9" ht="24" customHeight="1">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
-    <row r="33" spans="2:9" ht="24" customHeight="1">
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
-    <row r="34" spans="2:9" ht="24" customHeight="1">
-      <c r="B34" s="5" t="s">
+    <row r="35" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
-    <row r="35" spans="2:9" ht="24" customHeight="1">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
-    <row r="36" spans="2:9" ht="24" customHeight="1">
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
-    <row r="37" spans="2:9" ht="24" customHeight="1">
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
-    <row r="38" spans="2:9" ht="24" customHeight="1">
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
-    <row r="39" spans="2:9" ht="24" customHeight="1">
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:I4"/>
+  <mergeCells count="4">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
